--- a/server/dados_RED.xlsx
+++ b/server/dados_RED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,36 +474,6 @@
           <t>frame</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PLAYER</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TEAM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>DEATHS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ASSISTS</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>FARM</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CHAMPION</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -531,25 +501,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>3000</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -577,25 +537,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>4500</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -623,25 +573,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>6000</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -669,25 +609,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>7500</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -715,25 +645,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>9000</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -761,25 +681,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>10500</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -807,25 +717,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>12000</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -853,25 +753,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>13500</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -899,25 +789,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>15000</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -945,25 +825,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>16500</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -991,25 +861,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>18000</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1037,25 +897,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>19500</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1083,25 +933,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>21000</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1129,25 +969,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
       </c>
       <c r="H15" t="n">
         <v>22500</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1175,25 +1005,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
       </c>
       <c r="H16" t="n">
         <v>24000</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1221,25 +1041,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>25500</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1267,25 +1077,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9</v>
       </c>
       <c r="H18" t="n">
         <v>27000</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1313,25 +1113,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
       </c>
       <c r="H19" t="n">
         <v>28500</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1359,25 +1149,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
       </c>
       <c r="H20" t="n">
         <v>30000</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1405,25 +1185,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12</v>
       </c>
       <c r="H21" t="n">
         <v>31500</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1451,25 +1221,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12</v>
       </c>
       <c r="H22" t="n">
         <v>33000</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1497,25 +1257,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14</v>
       </c>
       <c r="H23" t="n">
         <v>34500</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1543,25 +1293,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14</v>
       </c>
       <c r="H24" t="n">
         <v>36000</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1589,25 +1329,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
       </c>
       <c r="H25" t="n">
         <v>37500</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1635,25 +1365,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15</v>
       </c>
       <c r="H26" t="n">
         <v>39000</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1681,25 +1401,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15</v>
       </c>
       <c r="H27" t="n">
         <v>40500</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1727,25 +1437,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16</v>
       </c>
       <c r="H28" t="n">
         <v>42000</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1773,25 +1473,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16</v>
       </c>
       <c r="H29" t="n">
         <v>43500</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1819,25 +1509,15 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>19</v>
       </c>
       <c r="H30" t="n">
         <v>45000</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1865,25 +1545,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>20</v>
       </c>
       <c r="H31" t="n">
         <v>46500</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1911,25 +1581,15 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20</v>
       </c>
       <c r="H32" t="n">
         <v>48000</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1957,25 +1617,15 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20</v>
       </c>
       <c r="H33" t="n">
         <v>49500</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2003,25 +1653,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20</v>
       </c>
       <c r="H34" t="n">
         <v>51000</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2049,25 +1689,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
       </c>
       <c r="H35" t="n">
         <v>52500</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2095,25 +1725,15 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>22</v>
       </c>
       <c r="H36" t="n">
         <v>54000</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2141,25 +1761,15 @@
           <t>No text detected</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25</v>
       </c>
       <c r="H37" t="n">
         <v>55500</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2187,25 +1797,15 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
       </c>
       <c r="H38" t="n">
         <v>57000</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2233,25 +1833,15 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26</v>
       </c>
       <c r="H39" t="n">
         <v>58500</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2279,25 +1869,15 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>26</v>
       </c>
       <c r="H40" t="n">
         <v>60000</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2325,25 +1905,15 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>31</v>
       </c>
       <c r="H41" t="n">
         <v>61500</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/server/dados_RED.xlsx
+++ b/server/dados_RED.xlsx
@@ -486,20 +486,14 @@
           <t>25</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -519,23 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>3..6</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -555,23 +543,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>5..1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -591,23 +573,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>6..1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -630,20 +606,14 @@
           <t>7.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -663,23 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>9..6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -702,20 +666,14 @@
           <t>10.5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -735,23 +693,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -774,20 +726,14 @@
           <t>13.1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -810,20 +756,14 @@
           <t>I5.0</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -846,20 +786,14 @@
           <t>16.2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -882,20 +816,14 @@
           <t>17.1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -918,20 +846,14 @@
           <t>19.7</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -954,20 +876,14 @@
           <t>20.7</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -987,23 +903,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>22.7</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1026,20 +936,14 @@
           <t>QA.1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1062,20 +966,14 @@
           <t>26.8</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1098,20 +996,14 @@
           <t>29.1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1134,20 +1026,14 @@
           <t>J0.6</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1170,20 +1056,14 @@
           <t>31.2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1206,20 +1086,14 @@
           <t>33.0</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1242,20 +1116,14 @@
           <t>J6.0</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1278,20 +1146,14 @@
           <t>37.3</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1314,20 +1176,14 @@
           <t>38.7</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1350,20 +1206,14 @@
           <t>39.6</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1386,20 +1236,14 @@
           <t>40.9</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1419,23 +1263,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>423</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>42.3</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1458,20 +1296,14 @@
           <t>AJ.3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1494,20 +1326,14 @@
           <t>A5.5</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1530,20 +1356,14 @@
           <t>48.7</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1566,20 +1386,14 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1599,23 +1413,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1638,20 +1446,14 @@
           <t>5A.1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1674,20 +1476,14 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1710,20 +1506,14 @@
           <t>58.3</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1746,20 +1536,14 @@
           <t>61,2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1782,20 +1566,14 @@
           <t>63.7</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1818,20 +1596,14 @@
           <t>65.7</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1854,20 +1626,14 @@
           <t>67.3</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1890,20 +1656,14 @@
           <t>71,3</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>No text detected</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>

--- a/server/dados_RED.xlsx
+++ b/server/dados_RED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,8 +486,10 @@
           <t>25</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -513,11 +515,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3..6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+          <t>3..4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -543,11 +547,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5..1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+          <t>5..a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -559,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>6000</v>
@@ -573,11 +579,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6..1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+          <t>7..6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -589,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>7500</v>
@@ -603,11 +611,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+          <t>9..3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -619,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>9000</v>
@@ -633,11 +643,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9..6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+          <t>10.A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -649,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>10500</v>
@@ -663,11 +675,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -679,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>12000</v>
@@ -693,11 +707,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11.8</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -709,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>13500</v>
@@ -723,11 +739,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13.1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -739,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>15000</v>
@@ -753,11 +771,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I5.0</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+          <t>16.5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -769,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>16500</v>
@@ -783,11 +803,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16.2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -799,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
         <v>18000</v>
@@ -813,11 +835,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17.1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+          <t>19.8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -829,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
         <v>19500</v>
@@ -843,11 +867,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -859,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
         <v>21000</v>
@@ -873,23 +899,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20.7</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+          <t>23.9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>22500</v>
@@ -903,23 +931,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22.7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
         <v>24000</v>
@@ -933,11 +963,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>QA.1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
+          <t>28,9</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -946,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
         <v>25500</v>
@@ -963,11 +995,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26.8</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+          <t>J0.2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -976,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
         <v>27000</v>
@@ -993,11 +1027,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29.1</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+          <t>31,9</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -1006,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
         <v>28500</v>
@@ -1023,11 +1059,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J0.6</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+          <t>33.2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -1036,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
         <v>30000</v>
@@ -1053,11 +1091,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+          <t>3..8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -1066,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
         <v>31500</v>
@@ -1083,11 +1123,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
+          <t>J6.1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -1096,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
         <v>33000</v>
@@ -1113,11 +1155,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>J6.0</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
+          <t>37.8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -1126,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>34500</v>
@@ -1143,11 +1187,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>37.3</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
+          <t>38,8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1156,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
         <v>36000</v>
@@ -1173,11 +1219,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>38.7</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
+          <t>40.2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -1186,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>15</v>
@@ -1203,11 +1251,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39.6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
+          <t>42.1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -1216,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" t="n">
         <v>39000</v>
@@ -1233,11 +1283,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>40.9</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
+          <t>42,9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1246,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="n">
         <v>40500</v>
@@ -1263,11 +1315,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>42.3</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>3</v>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1276,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>16</v>
@@ -1293,20 +1347,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AJ.3</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>3</v>
+          <t>Ng.3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>16</v>
@@ -1323,23 +1379,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A5.5</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>3</v>
+          <t>47,2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H30" t="n">
         <v>45000</v>
@@ -1353,23 +1411,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>48.7</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3</v>
+          <t>A9.0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H31" t="n">
         <v>46500</v>
@@ -1383,23 +1443,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H32" t="n">
         <v>48000</v>
@@ -1413,23 +1475,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>4</v>
+          <t>52.8</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H33" t="n">
         <v>49500</v>
@@ -1443,23 +1507,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5A.1</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" t="n">
         <v>51000</v>
@@ -1473,23 +1539,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>4</v>
+          <t>55.8</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
         <v>52500</v>
@@ -1503,176 +1571,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>58.3</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>4</v>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H36" t="n">
         <v>54000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>61,2</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>7</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>25</v>
-      </c>
-      <c r="H37" t="n">
-        <v>55500</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>25</v>
-      </c>
-      <c r="H38" t="n">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>7</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>26</v>
-      </c>
-      <c r="H39" t="n">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>8</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>26</v>
-      </c>
-      <c r="H40" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>71,3</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>10</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>31</v>
-      </c>
-      <c r="H41" t="n">
-        <v>61500</v>
       </c>
     </row>
   </sheetData>
